--- a/R/data/food_survey_231030.xlsx
+++ b/R/data/food_survey_231030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC7528F-F38C-C046-A823-0AC0482714D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E344E7-407B-8941-819F-3A77E07B577F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45100" yWindow="500" windowWidth="39880" windowHeight="21920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10582" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11594" uniqueCount="1121">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3128,6 +3128,261 @@
   </si>
   <si>
     <t>김은진</t>
+  </si>
+  <si>
+    <t>deo333333@naver.com</t>
+  </si>
+  <si>
+    <t>서대철</t>
+  </si>
+  <si>
+    <t>ehgnsdl5110312@gmail.com</t>
+  </si>
+  <si>
+    <t>dlthfdk2@naver.com</t>
+  </si>
+  <si>
+    <t>이솔아</t>
+  </si>
+  <si>
+    <t>shonshon7@naver.com</t>
+  </si>
+  <si>
+    <t>임소연</t>
+  </si>
+  <si>
+    <t>rkqls3333@gmail.com</t>
+  </si>
+  <si>
+    <t>권가비</t>
+  </si>
+  <si>
+    <t>dorud030406@naver.com</t>
+  </si>
+  <si>
+    <t>이예경</t>
+  </si>
+  <si>
+    <t>rian213@naver.com</t>
+  </si>
+  <si>
+    <t>안리안</t>
+  </si>
+  <si>
+    <t>choijoonhyuk1412@naver.com</t>
+  </si>
+  <si>
+    <t>cdm990512@gmail.com</t>
+  </si>
+  <si>
+    <t>천동민</t>
+  </si>
+  <si>
+    <t>tjgussla77@naver.com</t>
+  </si>
+  <si>
+    <t>차서현</t>
+  </si>
+  <si>
+    <t>qkrwjdwns0526@gmail.com</t>
+  </si>
+  <si>
+    <t>박정준</t>
+  </si>
+  <si>
+    <t>iceflower082@gmail.com</t>
+  </si>
+  <si>
+    <t>한지우</t>
+  </si>
+  <si>
+    <t>rla00604@gmail.com</t>
+  </si>
+  <si>
+    <t>김수연</t>
+  </si>
+  <si>
+    <t>thomas1114@naver.com</t>
+  </si>
+  <si>
+    <t>이재석</t>
+  </si>
+  <si>
+    <t>abcdefg76500@naver.com</t>
+  </si>
+  <si>
+    <t>노희망</t>
+  </si>
+  <si>
+    <t>kimhongik03@naver.com</t>
+  </si>
+  <si>
+    <t>김홍익</t>
+  </si>
+  <si>
+    <t>wlals0817@naver.com</t>
+  </si>
+  <si>
+    <t>정지민</t>
+  </si>
+  <si>
+    <t>tyu7626@naver.com</t>
+  </si>
+  <si>
+    <t>최서영</t>
+  </si>
+  <si>
+    <t>hmw1019@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>한민우</t>
+  </si>
+  <si>
+    <t>dhwnsgh740@gmail.com</t>
+  </si>
+  <si>
+    <t>오준호</t>
+  </si>
+  <si>
+    <t>osy2858@gmail.com</t>
+  </si>
+  <si>
+    <t>오수연</t>
+  </si>
+  <si>
+    <t>daysyad@naver.com</t>
+  </si>
+  <si>
+    <t>최소연</t>
+  </si>
+  <si>
+    <t>gksgh2311@naver.com</t>
+  </si>
+  <si>
+    <t>전한호</t>
+  </si>
+  <si>
+    <t>africa00788@gmail.com</t>
+  </si>
+  <si>
+    <t>구도희</t>
+  </si>
+  <si>
+    <t>soekhyun7628@naver.com</t>
+  </si>
+  <si>
+    <t>김석현</t>
+  </si>
+  <si>
+    <t>dlgpals27@naver.com</t>
+  </si>
+  <si>
+    <t>이혜민</t>
+  </si>
+  <si>
+    <t>minhan3729@gmail.com</t>
+  </si>
+  <si>
+    <t>이민한</t>
+  </si>
+  <si>
+    <t>20217071@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>오선민</t>
+  </si>
+  <si>
+    <t>cje03112@gmail.com</t>
+  </si>
+  <si>
+    <t>최민석</t>
+  </si>
+  <si>
+    <t>jeongyeon256@gmail.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>isol62@naver.com</t>
+  </si>
+  <si>
+    <t>육이솔</t>
+  </si>
+  <si>
+    <t>freenix1001@naver.com</t>
+  </si>
+  <si>
+    <t>강서연</t>
+  </si>
+  <si>
+    <t>dosilver1107@naver.com</t>
+  </si>
+  <si>
+    <t>임도은</t>
+  </si>
+  <si>
+    <t>jsbaek16@gmail.com</t>
+  </si>
+  <si>
+    <t>김하선</t>
+  </si>
+  <si>
+    <t>rladbqls1728@naver.com</t>
+  </si>
+  <si>
+    <t>김유빈</t>
+  </si>
+  <si>
+    <t>pouoqjs@naver.com</t>
+  </si>
+  <si>
+    <t>서준서</t>
+  </si>
+  <si>
+    <t>rladyddus789@gmail.com</t>
+  </si>
+  <si>
+    <t>김용연</t>
+  </si>
+  <si>
+    <t>youngprinceb612@gmail.com</t>
+  </si>
+  <si>
+    <t>송원혁</t>
+  </si>
+  <si>
+    <t>eunhorui1029@gmail.com</t>
+  </si>
+  <si>
+    <t>조은호</t>
+  </si>
+  <si>
+    <t>zero040409@gmail.com</t>
+  </si>
+  <si>
+    <t>차하율</t>
+  </si>
+  <si>
+    <t>kfic0221@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합부</t>
+  </si>
+  <si>
+    <t>서동욱</t>
+  </si>
+  <si>
+    <t>happle0313@naver.com</t>
+  </si>
+  <si>
+    <t>김희경</t>
+  </si>
+  <si>
+    <t>tnqls06082@naver.com</t>
+  </si>
+  <si>
+    <t>조수빈</t>
   </si>
 </sst>
 </file>
@@ -3401,11 +3656,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y460"/>
+  <dimension ref="A1:Y504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D395" sqref="D395"/>
+      <pane ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E510" sqref="E510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -38833,6 +39088,3394 @@
         <v>36</v>
       </c>
     </row>
+    <row r="461" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A461" s="2">
+        <v>45237.985079560181</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D461" s="1">
+        <v>20182889</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H461" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I461" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J461" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K461" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L461" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M461" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N461" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O461" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P461" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q461" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R461" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S461" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T461" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U461" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V461" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W461" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X461" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y461" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="462" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="2">
+        <v>45237.985391180555</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D462" s="1">
+        <v>20212708</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J462" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K462" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L462" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N462" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O462" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P462" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q462" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R462" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S462" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T462" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U462" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V462" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W462" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X462" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y462" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="463" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A463" s="2">
+        <v>45238.014191400463</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D463" s="1">
+        <v>20192743</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I463" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J463" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L463" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N463" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O463" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P463" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q463" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R463" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S463" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T463" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U463" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V463" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W463" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X463" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y463" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="464" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A464" s="2">
+        <v>45238.029882268514</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D464" s="1">
+        <v>20231079</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H464" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I464" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J464" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K464" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L464" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M464" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N464" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O464" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P464" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q464" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R464" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S464" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T464" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U464" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V464" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W464" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X464" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y464" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="465" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A465" s="2">
+        <v>45238.067788391199</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D465" s="1">
+        <v>20236205</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H465" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I465" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J465" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K465" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L465" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M465" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N465" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O465" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P465" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q465" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R465" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S465" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T465" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U465" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V465" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W465" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X465" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y465" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="466" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A466" s="2">
+        <v>45238.070195</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D466" s="1">
+        <v>20222559</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H466" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I466" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J466" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K466" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L466" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M466" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N466" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O466" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P466" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q466" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R466" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S466" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T466" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U466" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V466" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W466" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X466" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y466" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="467" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A467" s="2">
+        <v>45238.373780034723</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D467" s="1">
+        <v>20233823</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H467" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I467" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J467" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K467" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L467" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M467" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N467" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O467" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P467" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q467" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R467" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S467" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T467" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U467" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V467" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W467" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X467" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y467" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="468" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A468" s="2">
+        <v>45238.543940358795</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D468" s="1">
+        <v>20232588</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H468" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I468" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J468" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K468" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L468" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M468" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N468" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O468" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P468" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q468" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R468" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S468" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T468" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U468" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V468" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W468" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X468" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y468" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="469" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A469" s="2">
+        <v>45238.561422025465</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D469" s="1">
+        <v>20185300</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H469" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I469" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J469" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K469" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L469" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M469" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N469" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O469" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P469" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q469" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R469" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S469" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T469" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U469" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V469" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W469" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X469" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y469" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="470" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A470" s="2">
+        <v>45238.585656412033</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D470" s="1">
+        <v>20236295</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I470" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J470" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K470" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L470" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M470" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N470" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O470" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P470" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q470" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R470" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S470" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T470" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U470" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V470" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W470" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X470" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y470" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="471" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A471" s="2">
+        <v>45238.592170659722</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D471" s="1">
+        <v>20236129</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H471" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I471" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J471" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K471" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L471" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M471" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N471" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O471" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P471" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q471" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R471" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S471" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T471" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U471" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V471" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W471" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X471" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y471" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="472" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="2">
+        <v>45238.605654467596</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D472" s="1">
+        <v>20226647</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H472" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I472" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J472" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K472" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L472" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M472" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N472" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O472" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P472" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q472" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R472" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S472" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T472" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U472" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V472" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W472" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X472" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y472" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="473" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A473" s="2">
+        <v>45238.633902118054</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D473" s="1">
+        <v>20233608</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H473" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I473" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J473" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K473" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L473" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M473" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N473" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O473" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P473" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q473" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R473" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S473" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T473" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U473" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V473" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W473" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X473" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y473" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="474" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A474" s="2">
+        <v>45238.674672627312</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D474" s="1">
+        <v>20205261</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I474" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J474" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K474" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L474" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M474" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N474" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O474" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P474" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q474" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R474" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S474" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T474" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U474" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V474" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W474" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X474" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y474" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="475" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A475" s="2">
+        <v>45238.738898773147</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D475" s="1">
+        <v>20201627</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H475" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I475" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J475" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K475" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L475" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M475" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N475" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O475" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P475" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q475" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R475" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S475" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T475" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U475" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V475" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W475" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X475" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y475" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="476" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A476" s="2">
+        <v>45238.746932060181</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D476" s="1">
+        <v>20232946</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H476" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I476" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J476" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L476" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N476" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O476" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P476" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q476" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R476" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S476" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T476" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U476" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V476" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W476" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X476" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y476" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="477" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A477" s="2">
+        <v>45238.770324224533</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D477" s="1">
+        <v>20232114</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O477" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P477" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q477" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R477" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S477" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T477" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U477" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V477" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W477" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X477" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y477" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="478" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A478" s="2">
+        <v>45238.777924085647</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D478" s="1">
+        <v>20233734</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H478" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I478" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J478" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K478" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L478" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M478" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N478" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O478" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P478" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q478" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R478" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S478" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T478" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U478" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V478" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W478" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X478" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y478" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="479" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A479" s="2">
+        <v>45238.836775717587</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D479" s="1">
+        <v>20232636</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H479" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I479" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J479" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K479" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L479" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M479" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N479" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O479" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P479" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q479" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R479" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S479" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T479" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U479" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V479" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W479" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X479" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y479" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="480" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A480" s="2">
+        <v>45238.872865370373</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D480" s="1">
+        <v>20236785</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H480" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I480" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J480" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K480" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L480" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M480" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N480" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O480" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P480" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q480" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R480" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S480" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T480" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U480" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V480" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W480" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X480" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y480" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="481" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A481" s="2">
+        <v>45238.9004746875</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D481" s="1">
+        <v>20216258</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H481" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J481" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K481" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L481" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M481" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N481" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O481" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P481" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q481" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R481" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S481" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T481" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U481" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V481" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W481" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X481" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y481" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="482" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A482" s="2">
+        <v>45238.904224988422</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D482" s="1">
+        <v>20233826</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H482" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I482" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J482" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K482" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L482" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M482" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N482" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O482" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P482" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q482" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R482" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S482" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T482" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U482" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V482" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W482" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X482" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y482" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="483" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A483" s="2">
+        <v>45238.904916608793</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D483" s="1">
+        <v>20232586</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H483" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I483" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J483" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K483" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L483" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M483" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N483" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O483" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P483" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q483" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R483" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S483" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T483" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U483" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V483" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W483" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X483" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y483" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="484" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A484" s="2">
+        <v>45238.920971770829</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D484" s="1">
+        <v>20232842</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H484" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I484" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J484" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K484" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L484" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M484" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N484" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O484" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P484" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q484" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R484" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S484" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T484" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U484" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V484" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W484" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X484" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y484" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="485" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A485" s="2">
+        <v>45238.992871481481</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D485" s="1">
+        <v>20233906</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H485" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I485" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J485" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K485" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L485" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M485" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N485" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O485" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P485" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q485" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R485" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S485" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T485" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U485" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V485" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W485" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X485" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y485" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="486" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A486" s="2">
+        <v>45239.032741898147</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D486" s="1">
+        <v>20223807</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K486" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O486" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P486" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q486" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R486" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S486" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T486" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U486" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V486" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W486" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X486" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y486" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="487" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A487" s="2">
+        <v>45239.440668981479</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D487" s="1">
+        <v>20236767</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H487" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I487" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J487" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K487" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L487" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M487" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N487" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O487" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P487" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q487" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R487" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S487" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T487" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U487" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V487" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W487" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X487" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y487" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="488" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A488" s="2">
+        <v>45239.470878252316</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D488" s="1">
+        <v>20182556</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H488" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I488" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J488" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K488" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L488" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M488" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N488" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O488" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P488" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q488" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R488" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S488" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T488" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U488" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V488" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W488" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X488" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y488" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="489" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A489" s="2">
+        <v>45239.476271631946</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D489" s="1">
+        <v>20217071</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H489" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I489" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J489" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K489" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L489" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M489" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N489" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O489" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P489" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q489" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R489" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S489" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T489" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U489" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V489" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W489" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X489" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y489" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="490" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A490" s="2">
+        <v>45239.557375231481</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D490" s="1">
+        <v>20182580</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H490" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I490" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J490" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K490" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L490" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M490" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N490" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O490" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P490" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q490" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R490" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S490" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T490" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U490" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V490" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W490" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X490" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y490" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="491" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A491" s="2">
+        <v>45239.671020706017</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D491" s="1">
+        <v>20232232</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H491" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I491" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J491" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K491" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L491" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M491" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N491" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O491" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P491" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q491" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R491" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S491" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T491" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U491" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V491" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W491" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X491" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y491" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="492" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A492" s="2">
+        <v>45239.709276134265</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D492" s="1">
+        <v>20232339</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I492" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J492" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K492" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L492" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M492" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N492" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O492" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P492" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q492" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R492" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S492" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T492" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U492" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V492" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W492" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X492" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y492" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="493" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A493" s="2">
+        <v>45239.883476215276</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D493" s="1">
+        <v>20233903</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H493" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I493" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J493" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K493" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L493" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M493" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N493" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O493" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P493" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q493" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R493" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S493" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T493" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U493" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V493" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W493" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X493" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y493" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="494" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A494" s="2">
+        <v>45239.909983171296</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D494" s="1">
+        <v>20212233</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H494" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I494" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J494" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K494" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L494" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M494" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N494" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O494" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P494" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q494" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R494" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S494" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T494" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U494" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V494" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W494" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X494" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y494" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="495" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A495" s="2">
+        <v>45239.955984421293</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D495" s="1">
+        <v>20222714</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H495" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I495" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J495" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K495" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L495" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M495" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N495" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O495" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P495" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q495" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R495" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S495" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T495" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U495" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V495" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W495" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X495" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y495" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="496" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A496" s="2">
+        <v>45239.96265587963</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D496" s="1">
+        <v>20232412</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H496" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I496" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J496" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O496" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P496" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q496" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R496" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S496" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T496" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U496" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V496" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W496" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X496" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y496" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="497" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A497" s="2">
+        <v>45239.965004953701</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D497" s="1">
+        <v>20232969</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H497" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I497" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J497" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K497" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L497" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M497" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N497" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O497" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P497" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q497" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R497" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S497" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T497" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U497" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V497" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W497" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X497" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y497" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="498" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A498" s="2">
+        <v>45239.975014270836</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D498" s="1">
+        <v>20191508</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H498" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I498" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J498" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K498" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L498" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M498" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N498" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O498" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P498" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q498" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R498" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S498" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T498" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U498" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V498" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W498" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X498" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y498" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="499" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A499" s="2">
+        <v>45240.012890763886</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D499" s="1">
+        <v>20233936</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G499" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H499" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I499" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J499" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K499" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L499" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M499" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N499" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O499" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P499" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q499" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R499" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S499" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T499" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U499" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V499" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W499" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X499" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y499" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="500" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A500" s="2">
+        <v>45240.037825509258</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D500" s="1">
+        <v>20223047</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G500" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H500" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I500" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J500" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K500" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L500" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M500" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N500" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O500" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P500" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q500" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R500" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S500" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T500" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U500" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V500" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W500" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X500" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y500" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="501" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A501" s="2">
+        <v>45240.051263657406</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D501" s="1">
+        <v>20233050</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H501" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I501" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J501" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K501" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L501" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M501" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N501" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O501" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P501" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q501" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R501" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S501" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T501" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U501" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V501" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W501" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X501" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y501" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="502" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A502" s="2">
+        <v>45240.070792083337</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D502" s="1">
+        <v>20236733</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H502" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I502" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J502" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K502" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L502" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M502" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N502" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O502" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P502" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q502" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R502" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S502" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T502" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U502" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V502" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W502" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X502" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y502" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="503" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A503" s="2">
+        <v>45240.091191643514</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D503" s="1">
+        <v>20202945</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G503" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H503" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I503" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J503" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K503" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L503" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M503" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N503" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O503" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P503" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q503" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R503" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S503" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T503" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U503" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V503" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W503" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X503" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y503" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="504" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A504" s="2">
+        <v>45240.158331666666</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D504" s="1">
+        <v>20221728</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H504" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I504" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J504" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K504" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L504" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M504" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N504" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O504" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P504" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q504" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R504" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S504" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T504" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U504" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V504" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W504" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X504" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y504" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/food_survey_231030.xlsx
+++ b/R/data/food_survey_231030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E344E7-407B-8941-819F-3A77E07B577F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A9E5C-DCA0-B449-8C67-925C555222C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45100" yWindow="500" windowWidth="39880" windowHeight="21920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11594" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12261" uniqueCount="1180">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3383,6 +3383,183 @@
   </si>
   <si>
     <t>조수빈</t>
+  </si>
+  <si>
+    <t>minjae0812@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부 빅데이터전공</t>
+  </si>
+  <si>
+    <t>주민재</t>
+  </si>
+  <si>
+    <t>suani3176@gmail.com</t>
+  </si>
+  <si>
+    <t>박수안</t>
+  </si>
+  <si>
+    <t>zdfxd3611@naver.com</t>
+  </si>
+  <si>
+    <t>이현태</t>
+  </si>
+  <si>
+    <t>seongheun2004@gmail.com</t>
+  </si>
+  <si>
+    <t>지성흔</t>
+  </si>
+  <si>
+    <t>year0309@naver.com</t>
+  </si>
+  <si>
+    <t>djdodhrghr@naver.com</t>
+  </si>
+  <si>
+    <t>융합신소재공학전공</t>
+  </si>
+  <si>
+    <t>송서현</t>
+  </si>
+  <si>
+    <t>aktnftk3520@naver.com</t>
+  </si>
+  <si>
+    <t>어수련</t>
+  </si>
+  <si>
+    <t>dlruddk9@naver.com</t>
+  </si>
+  <si>
+    <t>이경아</t>
+  </si>
+  <si>
+    <t>sjy01041864550@gmail.com</t>
+  </si>
+  <si>
+    <t>서진영</t>
+  </si>
+  <si>
+    <t>shdbsgh0305@naver.com</t>
+  </si>
+  <si>
+    <t>노윤호</t>
+  </si>
+  <si>
+    <t>won993456@naver.com</t>
+  </si>
+  <si>
+    <t>정경원</t>
+  </si>
+  <si>
+    <t>qasw0529@naver.com</t>
+  </si>
+  <si>
+    <t>gjska1020@naver.com</t>
+  </si>
+  <si>
+    <t>허남훈</t>
+  </si>
+  <si>
+    <t>khjkhj0314@naver.com</t>
+  </si>
+  <si>
+    <t>김현종</t>
+  </si>
+  <si>
+    <t>chaeyun7206@gmail.com</t>
+  </si>
+  <si>
+    <t>배채윤</t>
+  </si>
+  <si>
+    <t>rlawlsvy234@gmail.com</t>
+  </si>
+  <si>
+    <t>김진표</t>
+  </si>
+  <si>
+    <t>yglee135766@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤구</t>
+  </si>
+  <si>
+    <t>qkqch128@naver.com</t>
+  </si>
+  <si>
+    <t>반초원</t>
+  </si>
+  <si>
+    <t>tjwls7140@naver.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>황서진</t>
+  </si>
+  <si>
+    <t>psm4155@gmail.com</t>
+  </si>
+  <si>
+    <t>박진주</t>
+  </si>
+  <si>
+    <t>sumin102573@naver.com</t>
+  </si>
+  <si>
+    <t>김수민</t>
+  </si>
+  <si>
+    <t>rjsdnjs0711@gmail.com</t>
+  </si>
+  <si>
+    <t>서건원</t>
+  </si>
+  <si>
+    <t>psb5150@naver.com</t>
+  </si>
+  <si>
+    <t>박수빈</t>
+  </si>
+  <si>
+    <t>coolsw98@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부 정보법과학전공</t>
+  </si>
+  <si>
+    <t>thdrkdud456456@gmail.com</t>
+  </si>
+  <si>
+    <t>송가영</t>
+  </si>
+  <si>
+    <t>audwlswlghd7@naver.com</t>
+  </si>
+  <si>
+    <t>신명진</t>
+  </si>
+  <si>
+    <t>rudqh0501@gmail.com</t>
+  </si>
+  <si>
+    <t>이경보</t>
+  </si>
+  <si>
+    <t>kimyebin0628@naver.com</t>
+  </si>
+  <si>
+    <t>김예빈</t>
+  </si>
+  <si>
+    <t>jhs120600@naver.com</t>
+  </si>
+  <si>
+    <t>장현성</t>
   </si>
 </sst>
 </file>
@@ -3656,11 +3833,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y504"/>
+  <dimension ref="A1:Y533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E510" sqref="E510"/>
+      <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C542" sqref="C542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -42476,6 +42653,2239 @@
         <v>32</v>
       </c>
     </row>
+    <row r="505" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A505" s="2">
+        <v>45240.324677581018</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D505" s="1">
+        <v>20215249</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G505" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H505" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I505" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J505" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K505" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L505" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M505" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N505" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O505" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P505" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q505" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R505" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S505" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T505" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U505" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V505" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W505" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X505" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y505" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="506" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A506" s="2">
+        <v>45240.377643020838</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D506" s="1">
+        <v>20232328</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G506" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H506" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I506" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J506" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K506" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L506" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M506" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N506" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O506" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P506" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q506" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R506" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S506" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T506" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U506" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V506" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W506" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X506" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y506" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="507" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A507" s="2">
+        <v>45240.449488923608</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D507" s="1">
+        <v>20205239</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H507" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I507" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J507" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K507" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L507" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M507" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N507" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O507" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P507" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q507" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R507" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S507" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T507" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U507" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V507" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W507" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X507" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y507" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="508" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A508" s="2">
+        <v>45240.471992523147</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D508" s="1">
+        <v>20234151</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H508" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K508" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N508" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O508" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P508" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q508" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R508" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S508" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T508" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U508" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V508" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W508" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X508" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y508" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="509" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A509" s="2">
+        <v>45240.567551030093</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D509" s="1">
+        <v>20222950</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H509" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I509" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J509" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K509" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L509" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M509" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N509" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O509" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P509" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q509" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R509" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S509" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T509" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U509" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V509" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W509" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X509" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y509" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="510" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A510" s="2">
+        <v>45240.579336064809</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D510" s="1">
+        <v>20216618</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G510" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H510" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I510" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J510" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K510" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L510" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M510" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N510" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O510" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X510" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y510" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="511" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A511" s="2">
+        <v>45240.588975509258</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D511" s="1">
+        <v>20236628</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J511" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L511" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M511" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O511" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P511" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q511" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R511" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S511" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T511" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U511" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V511" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W511" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X511" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y511" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="512" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A512" s="2">
+        <v>45240.622107256946</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D512" s="1">
+        <v>20212342</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H512" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I512" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N512" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O512" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P512" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q512" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R512" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S512" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T512" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U512" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V512" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W512" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X512" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y512" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="513" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A513" s="2">
+        <v>45240.626334988425</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D513" s="1">
+        <v>20236620</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H513" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K513" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M513" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O513" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P513" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q513" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R513" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S513" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T513" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U513" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V513" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W513" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X513" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y513" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="514" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A514" s="2">
+        <v>45240.635447893517</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D514" s="1">
+        <v>20231710</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N514" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O514" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P514" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q514" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R514" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S514" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T514" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U514" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V514" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W514" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X514" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y514" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="515" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A515" s="2">
+        <v>45240.681134999999</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D515" s="1">
+        <v>20181095</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O515" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P515" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q515" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R515" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S515" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T515" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U515" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V515" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W515" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X515" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y515" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="516" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A516" s="2">
+        <v>45240.685116018518</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D516" s="1">
+        <v>20232508</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H516" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I516" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J516" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K516" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L516" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M516" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N516" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O516" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P516" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q516" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R516" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S516" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T516" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U516" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V516" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W516" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X516" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y516" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="517" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A517" s="2">
+        <v>45240.690242523153</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D517" s="1">
+        <v>20206644</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H517" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I517" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M517" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N517" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O517" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P517" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q517" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R517" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S517" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T517" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U517" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V517" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W517" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X517" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y517" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="518" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A518" s="2">
+        <v>45240.826120092592</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D518" s="1">
+        <v>20235155</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G518" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H518" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I518" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J518" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K518" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L518" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M518" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N518" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O518" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P518" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q518" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R518" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S518" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T518" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U518" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V518" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W518" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X518" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y518" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="519" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A519" s="2">
+        <v>45240.828104305554</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D519" s="1">
+        <v>20233932</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G519" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H519" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I519" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J519" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K519" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L519" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M519" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N519" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O519" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P519" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q519" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R519" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S519" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T519" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U519" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V519" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W519" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X519" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y519" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="520" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A520" s="2">
+        <v>45240.838212743052</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D520" s="1">
+        <v>20193316</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G520" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H520" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I520" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J520" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K520" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L520" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M520" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N520" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O520" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P520" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q520" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R520" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S520" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T520" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U520" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V520" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W520" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X520" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y520" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="521" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A521" s="2">
+        <v>45240.909218958332</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D521" s="1">
+        <v>20193532</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H521" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I521" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J521" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K521" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L521" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M521" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N521" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O521" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P521" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q521" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R521" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S521" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T521" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U521" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V521" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W521" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X521" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y521" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="522" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A522" s="2">
+        <v>45240.917070636569</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D522" s="1">
+        <v>20203411</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I522" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J522" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K522" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L522" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M522" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N522" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O522" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P522" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q522" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R522" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S522" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T522" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U522" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V522" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W522" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X522" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y522" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="523" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A523" s="2">
+        <v>45240.936010937497</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D523" s="1">
+        <v>20233353</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I523" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J523" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K523" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L523" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M523" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N523" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O523" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P523" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q523" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R523" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S523" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T523" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U523" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V523" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W523" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X523" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y523" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="524" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A524" s="2">
+        <v>45240.95019693287</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D524" s="1">
+        <v>20231518</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I524" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J524" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K524" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L524" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M524" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N524" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O524" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P524" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q524" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R524" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S524" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T524" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U524" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V524" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W524" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X524" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y524" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="525" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A525" s="2">
+        <v>45240.978554085646</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D525" s="1">
+        <v>20212922</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H525" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I525" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J525" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K525" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L525" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M525" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N525" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O525" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P525" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q525" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R525" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S525" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T525" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U525" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V525" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W525" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X525" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y525" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="526" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A526" s="2">
+        <v>45241.01655137731</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D526" s="1">
+        <v>20223324</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J526" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K526" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L526" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M526" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N526" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O526" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P526" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q526" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R526" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S526" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T526" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U526" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V526" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W526" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X526" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y526" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="527" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A527" s="2">
+        <v>45241.016603634256</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D527" s="1">
+        <v>20192870</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I527" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J527" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K527" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L527" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M527" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N527" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O527" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P527" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q527" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R527" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S527" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T527" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U527" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V527" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W527" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X527" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y527" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="528" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="2">
+        <v>45241.039076458328</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D528" s="1">
+        <v>20206410</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J528" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K528" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L528" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M528" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N528" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O528" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P528" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q528" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R528" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S528" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T528" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U528" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V528" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W528" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X528" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y528" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="529" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A529" s="2">
+        <v>45241.059905057875</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D529" s="1">
+        <v>20222968</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I529" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J529" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K529" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L529" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M529" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N529" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O529" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P529" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q529" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R529" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S529" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T529" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U529" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V529" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W529" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X529" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y529" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="530" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A530" s="2">
+        <v>45241.081311828704</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D530" s="1">
+        <v>20192902</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I530" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J530" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K530" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L530" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M530" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N530" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O530" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P530" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q530" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R530" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S530" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T530" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U530" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V530" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W530" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X530" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y530" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="531" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A531" s="2">
+        <v>45241.101803483798</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D531" s="1">
+        <v>20233417</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I531" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J531" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K531" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L531" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M531" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N531" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O531" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P531" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q531" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R531" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S531" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T531" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U531" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V531" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W531" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X531" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y531" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="532" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A532" s="2">
+        <v>45241.10953396991</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D532" s="1">
+        <v>20202711</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I532" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J532" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K532" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L532" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M532" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N532" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O532" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P532" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q532" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R532" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S532" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T532" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U532" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V532" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W532" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X532" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y532" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="533" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A533" s="2">
+        <v>45241.27651974537</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D533" s="1">
+        <v>20233344</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I533" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J533" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K533" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L533" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M533" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N533" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O533" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P533" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q533" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R533" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S533" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T533" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U533" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V533" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W533" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X533" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y533" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/food_survey_231030.xlsx
+++ b/R/data/food_survey_231030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A9E5C-DCA0-B449-8C67-925C555222C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01F8F99-4D20-A042-A4C6-DFA803F8BC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45100" yWindow="500" windowWidth="39880" windowHeight="21920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12261" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12813" uniqueCount="1231">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3560,6 +3560,159 @@
   </si>
   <si>
     <t>장현성</t>
+  </si>
+  <si>
+    <t>dnjsdnuni@gmail.com</t>
+  </si>
+  <si>
+    <t>홍희선</t>
+  </si>
+  <si>
+    <t>dennis121691@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터테크전공</t>
+  </si>
+  <si>
+    <t>aj4497@naver.com</t>
+  </si>
+  <si>
+    <t>안연지</t>
+  </si>
+  <si>
+    <t>dms95123@naver.com</t>
+  </si>
+  <si>
+    <t>김은별</t>
+  </si>
+  <si>
+    <t>jisung5549@naver.com</t>
+  </si>
+  <si>
+    <t>송지성</t>
+  </si>
+  <si>
+    <t>wlalsdlcjm4@naver.com</t>
+  </si>
+  <si>
+    <t>차지민</t>
+  </si>
+  <si>
+    <t>kimyugyeong59@naver.com</t>
+  </si>
+  <si>
+    <t>김유경</t>
+  </si>
+  <si>
+    <t>daewon4223@gmail.com</t>
+  </si>
+  <si>
+    <t>이대원</t>
+  </si>
+  <si>
+    <t>kwakyeeun624@naver.com</t>
+  </si>
+  <si>
+    <t>곽예은</t>
+  </si>
+  <si>
+    <t>hogin0912@naver.com</t>
+  </si>
+  <si>
+    <t>신호진</t>
+  </si>
+  <si>
+    <t>loul0412@naver.com</t>
+  </si>
+  <si>
+    <t>김가령</t>
+  </si>
+  <si>
+    <t>junchan1223@naver.com</t>
+  </si>
+  <si>
+    <t>최찬현</t>
+  </si>
+  <si>
+    <t>dbstn5721@naver.com</t>
+  </si>
+  <si>
+    <t>김윤수</t>
+  </si>
+  <si>
+    <t>mkdaniel2020@gmail.com</t>
+  </si>
+  <si>
+    <t>권다넬</t>
+  </si>
+  <si>
+    <t>chaeseungwoo99@gmail.com</t>
+  </si>
+  <si>
+    <t>식품영양</t>
+  </si>
+  <si>
+    <t>채승우</t>
+  </si>
+  <si>
+    <t>lsyun5050@naver.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>cupholderr100@gmail.com</t>
+  </si>
+  <si>
+    <t>홍민지</t>
+  </si>
+  <si>
+    <t>ryan.kang04@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소프트웨어학부 </t>
+  </si>
+  <si>
+    <t>강우석</t>
+  </si>
+  <si>
+    <t>ryuthgud@naver.com</t>
+  </si>
+  <si>
+    <t>류소형</t>
+  </si>
+  <si>
+    <t>noble2755@naver.com</t>
+  </si>
+  <si>
+    <t>김정기</t>
+  </si>
+  <si>
+    <t>sjm3756@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>서장민</t>
+  </si>
+  <si>
+    <t>20235130@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김상윤</t>
+  </si>
+  <si>
+    <t>plzmxn@naver.com</t>
+  </si>
+  <si>
+    <t>현상희</t>
+  </si>
+  <si>
+    <t>h20205164@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박건웅</t>
   </si>
 </sst>
 </file>
@@ -3833,11 +3986,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y533"/>
+  <dimension ref="A1:Y557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C542" sqref="C542"/>
+      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G563" sqref="G563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -44886,6 +45039,1854 @@
         <v>31</v>
       </c>
     </row>
+    <row r="534" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A534" s="2">
+        <v>45241.363782627319</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D534" s="1">
+        <v>20233969</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I534" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J534" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K534" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L534" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M534" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N534" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O534" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P534" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q534" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R534" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S534" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T534" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U534" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V534" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W534" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X534" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y534" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="535" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A535" s="2">
+        <v>45241.439541921296</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D535" s="1">
+        <v>20203224</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I535" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J535" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K535" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L535" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M535" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N535" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O535" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P535" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q535" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R535" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S535" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T535" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U535" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V535" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W535" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X535" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y535" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="536" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A536" s="2">
+        <v>45241.52577015046</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D536" s="1">
+        <v>20233326</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I536" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J536" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K536" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L536" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M536" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N536" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O536" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P536" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q536" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R536" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S536" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T536" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U536" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V536" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W536" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X536" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y536" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="537" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A537" s="2">
+        <v>45241.533910162034</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D537" s="1">
+        <v>20232317</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J537" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L537" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O537" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P537" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q537" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R537" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S537" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T537" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U537" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V537" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W537" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X537" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y537" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="538" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A538" s="2">
+        <v>45241.538488692131</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D538" s="1">
+        <v>20222970</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I538" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J538" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K538" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L538" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M538" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N538" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O538" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P538" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q538" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R538" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S538" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T538" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U538" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V538" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W538" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X538" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y538" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="539" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A539" s="2">
+        <v>45241.561124409724</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D539" s="1">
+        <v>20236296</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I539" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J539" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K539" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L539" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M539" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N539" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O539" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P539" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q539" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R539" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S539" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T539" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U539" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V539" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W539" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X539" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y539" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="540" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A540" s="2">
+        <v>45241.575553831019</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D540" s="1">
+        <v>20232521</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G540" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H540" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I540" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J540" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K540" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L540" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M540" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N540" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O540" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P540" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q540" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R540" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S540" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T540" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U540" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V540" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W540" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X540" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y540" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="541" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A541" s="2">
+        <v>45241.588538958335</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D541" s="1">
+        <v>20235224</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O541" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P541" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q541" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R541" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S541" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T541" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U541" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V541" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W541" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X541" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y541" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="542" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A542" s="2">
+        <v>45241.597236527778</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D542" s="1">
+        <v>20236204</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G542" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H542" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I542" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J542" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K542" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L542" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M542" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N542" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O542" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P542" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q542" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R542" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S542" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T542" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U542" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V542" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W542" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X542" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y542" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="543" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A543" s="2">
+        <v>45241.634231724536</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D543" s="1">
+        <v>20232829</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N543" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O543" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P543" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q543" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R543" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S543" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T543" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U543" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V543" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W543" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X543" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y543" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="544" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A544" s="2">
+        <v>45241.634247222217</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D544" s="1">
+        <v>20231201</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I544" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J544" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K544" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L544" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M544" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N544" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O544" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P544" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q544" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R544" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S544" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T544" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U544" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V544" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W544" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X544" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y544" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="545" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A545" s="2">
+        <v>45241.636430104161</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D545" s="1">
+        <v>20236300</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G545" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I545" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J545" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K545" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L545" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M545" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N545" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O545" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P545" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q545" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R545" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S545" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T545" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U545" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V545" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W545" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X545" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y545" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="546" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A546" s="2">
+        <v>45241.639066354168</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D546" s="1">
+        <v>20183212</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G546" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I546" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J546" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K546" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L546" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M546" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N546" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O546" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P546" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q546" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R546" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S546" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T546" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U546" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V546" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W546" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X546" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y546" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="547" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A547" s="2">
+        <v>45241.64570168982</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D547" s="1">
+        <v>20226403</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I547" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J547" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K547" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L547" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M547" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N547" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O547" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P547" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q547" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R547" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S547" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T547" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U547" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V547" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W547" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X547" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y547" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="548" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A548" s="2">
+        <v>45241.646427372689</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D548" s="1">
+        <v>20183845</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I548" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J548" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K548" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L548" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M548" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N548" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O548" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P548" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q548" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R548" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S548" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T548" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U548" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V548" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W548" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X548" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y548" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="549" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A549" s="2">
+        <v>45241.65600743056</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D549" s="1">
+        <v>20232561</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I549" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J549" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K549" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L549" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M549" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N549" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O549" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P549" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q549" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R549" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S549" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T549" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U549" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V549" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W549" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X549" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y549" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="550" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A550" s="2">
+        <v>45241.659752731481</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D550" s="1">
+        <v>20232592</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G550" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I550" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J550" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K550" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L550" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M550" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N550" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O550" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P550" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q550" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R550" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S550" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T550" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U550" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V550" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W550" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X550" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y550" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="551" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A551" s="2">
+        <v>45241.696614699074</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D551" s="1">
+        <v>20235105</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G551" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H551" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I551" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J551" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K551" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L551" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M551" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N551" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O551" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P551" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q551" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R551" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S551" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T551" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U551" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V551" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W551" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X551" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y551" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="552" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A552" s="2">
+        <v>45241.700470625001</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D552" s="1">
+        <v>20232947</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L552" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M552" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N552" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O552" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P552" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q552" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R552" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S552" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T552" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U552" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V552" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W552" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X552" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y552" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="553" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A553" s="2">
+        <v>45241.705290613427</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D553" s="1">
+        <v>20233211</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H553" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I553" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J553" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K553" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L553" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M553" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N553" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O553" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P553" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q553" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R553" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S553" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T553" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U553" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V553" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W553" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X553" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y553" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="554" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A554" s="2">
+        <v>45241.721887523148</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D554" s="1">
+        <v>20163118</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H554" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I554" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J554" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K554" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L554" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M554" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N554" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O554" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P554" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q554" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R554" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S554" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T554" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U554" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V554" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W554" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X554" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y554" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="555" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A555" s="2">
+        <v>45241.73491201389</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D555" s="1">
+        <v>20235130</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I555" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J555" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K555" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L555" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M555" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N555" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O555" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P555" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q555" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R555" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S555" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T555" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U555" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V555" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W555" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X555" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y555" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="556" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A556" s="2">
+        <v>45241.745435659723</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D556" s="1">
+        <v>20232642</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I556" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J556" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K556" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L556" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M556" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N556" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O556" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P556" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q556" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R556" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S556" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T556" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U556" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V556" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W556" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X556" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y556" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="557" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A557" s="2">
+        <v>45241.746574525459</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D557" s="1">
+        <v>20205164</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I557" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J557" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K557" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L557" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M557" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N557" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O557" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P557" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q557" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R557" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S557" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T557" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U557" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V557" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W557" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X557" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y557" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/food_survey_231030.xlsx
+++ b/R/data/food_survey_231030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01F8F99-4D20-A042-A4C6-DFA803F8BC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B83254-CD0A-D046-A0A9-A3A810F22113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45100" yWindow="500" windowWidth="39880" windowHeight="21920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12813" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13664" uniqueCount="1309">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3713,6 +3713,240 @@
   </si>
   <si>
     <t>박건웅</t>
+  </si>
+  <si>
+    <t>gggp1224@naver.com</t>
+  </si>
+  <si>
+    <t>임재우</t>
+  </si>
+  <si>
+    <t>jinyoung05503@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>qwop7845@naver.com</t>
+  </si>
+  <si>
+    <t>최시연</t>
+  </si>
+  <si>
+    <t>zzolle424@naver.com</t>
+  </si>
+  <si>
+    <t>전지호</t>
+  </si>
+  <si>
+    <t>20226760@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>Ai의료융합</t>
+  </si>
+  <si>
+    <t>이민홍</t>
+  </si>
+  <si>
+    <t>taeseo12@naver.com</t>
+  </si>
+  <si>
+    <t>전자공학과</t>
+  </si>
+  <si>
+    <t>박태서</t>
+  </si>
+  <si>
+    <t>pmr0093@naver.com</t>
+  </si>
+  <si>
+    <t>박미래</t>
+  </si>
+  <si>
+    <t>ssabaljukinsaekki@gmail.com</t>
+  </si>
+  <si>
+    <t>정민석</t>
+  </si>
+  <si>
+    <t>sjh8358000@naver.com</t>
+  </si>
+  <si>
+    <t>손지후</t>
+  </si>
+  <si>
+    <t>xpjungwoo0518@kakao.com</t>
+  </si>
+  <si>
+    <t>이정우</t>
+  </si>
+  <si>
+    <t>gwkang0330@gmail.com</t>
+  </si>
+  <si>
+    <t>강건우</t>
+  </si>
+  <si>
+    <t>ruye0114@naver.com</t>
+  </si>
+  <si>
+    <t>류영서</t>
+  </si>
+  <si>
+    <t>lemon1423@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>성주원</t>
+  </si>
+  <si>
+    <t>gawon9707@gmail.com</t>
+  </si>
+  <si>
+    <t>이가원</t>
+  </si>
+  <si>
+    <t>taeho4756@naver.com</t>
+  </si>
+  <si>
+    <t>조태호</t>
+  </si>
+  <si>
+    <t>khm1785@naver.com</t>
+  </si>
+  <si>
+    <t>김효민</t>
+  </si>
+  <si>
+    <t>rlagkdud114@naver.com</t>
+  </si>
+  <si>
+    <t>김하영</t>
+  </si>
+  <si>
+    <t>ggr1042@naver.com</t>
+  </si>
+  <si>
+    <t>김경록</t>
+  </si>
+  <si>
+    <t>skaguddl92@naver.com</t>
+  </si>
+  <si>
+    <t>컴퓨터공학과</t>
+  </si>
+  <si>
+    <t>김남형</t>
+  </si>
+  <si>
+    <t>sinjisu030426@gmail.com</t>
+  </si>
+  <si>
+    <t>신지수</t>
+  </si>
+  <si>
+    <t>akdeid2342@handd.com</t>
+  </si>
+  <si>
+    <t>김미소</t>
+  </si>
+  <si>
+    <t>h20205265@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최준영</t>
+  </si>
+  <si>
+    <t>wooyj0817@naver.com</t>
+  </si>
+  <si>
+    <t>우연정</t>
+  </si>
+  <si>
+    <t>hankyo777@naver.com</t>
+  </si>
+  <si>
+    <t>장성주</t>
+  </si>
+  <si>
+    <t>wusl0327@naver.com</t>
+  </si>
+  <si>
+    <t>신지연</t>
+  </si>
+  <si>
+    <t>kmspse0405@naver.com</t>
+  </si>
+  <si>
+    <t>박세은</t>
+  </si>
+  <si>
+    <t>hwangyejin2000@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠 전공</t>
+  </si>
+  <si>
+    <t>황예진</t>
+  </si>
+  <si>
+    <t>jay003@naver.com</t>
+  </si>
+  <si>
+    <t>qwelkjzxc00000@gmail.com</t>
+  </si>
+  <si>
+    <t>엄서진</t>
+  </si>
+  <si>
+    <t>bldrlsld@gmail.com</t>
+  </si>
+  <si>
+    <t>김규빈</t>
+  </si>
+  <si>
+    <t>h20221203@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>권민주</t>
+  </si>
+  <si>
+    <t>cho2scho2s@gmail.com</t>
+  </si>
+  <si>
+    <t>조은해</t>
+  </si>
+  <si>
+    <t>tjdbs6201305@naver.com</t>
+  </si>
+  <si>
+    <t>송서윤</t>
+  </si>
+  <si>
+    <t>ahn12025759@gmail.com</t>
+  </si>
+  <si>
+    <t>안채현</t>
+  </si>
+  <si>
+    <t>was193567@gmail.com</t>
+  </si>
+  <si>
+    <t>권유진</t>
+  </si>
+  <si>
+    <t>vertigojohn95@gmail.com</t>
+  </si>
+  <si>
+    <t>김정후</t>
+  </si>
+  <si>
+    <t>zzx3488@naver.com</t>
+  </si>
+  <si>
+    <t>이인혁</t>
   </si>
 </sst>
 </file>
@@ -3986,11 +4220,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y557"/>
+  <dimension ref="A1:Y594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G563" sqref="G563"/>
+      <pane ySplit="1" topLeftCell="A556" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B600" sqref="B600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -46887,6 +47121,2855 @@
         <v>32</v>
       </c>
     </row>
+    <row r="558" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A558" s="2">
+        <v>45241.756603576388</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D558" s="1">
+        <v>20202742</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I558" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J558" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K558" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L558" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M558" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N558" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O558" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P558" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q558" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R558" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S558" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T558" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U558" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V558" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W558" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X558" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y558" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="559" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A559" s="2">
+        <v>45241.760835740744</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D559" s="1">
+        <v>20233534</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I559" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J559" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K559" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L559" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M559" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N559" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O559" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P559" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q559" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R559" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S559" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T559" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U559" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V559" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W559" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X559" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y559" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="560" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A560" s="2">
+        <v>45241.761573483796</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D560" s="1">
+        <v>20236638</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I560" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J560" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K560" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L560" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M560" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N560" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O560" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P560" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q560" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R560" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S560" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T560" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U560" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V560" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W560" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X560" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y560" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="561" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A561" s="2">
+        <v>45241.774864560182</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D561" s="1">
+        <v>20233030</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H561" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M561" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N561" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O561" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P561" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q561" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R561" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S561" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T561" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U561" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V561" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W561" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X561" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y561" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="562" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A562" s="2">
+        <v>45241.804361400464</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D562" s="1">
+        <v>20226760</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O562" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P562" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q562" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R562" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S562" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T562" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U562" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V562" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W562" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X562" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y562" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="563" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A563" s="2">
+        <v>45241.82093548611</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D563" s="1">
+        <v>20175224</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G563" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H563" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I563" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J563" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K563" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L563" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M563" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N563" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O563" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P563" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q563" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R563" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S563" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T563" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U563" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V563" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W563" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X563" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y563" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="564" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A564" s="2">
+        <v>45241.831340416669</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D564" s="1">
+        <v>20192319</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G564" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H564" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I564" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J564" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K564" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L564" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M564" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N564" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O564" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P564" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q564" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R564" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S564" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T564" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U564" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V564" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W564" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X564" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y564" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="565" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A565" s="2">
+        <v>45241.862711956019</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D565" s="1">
+        <v>20235252</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G565" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H565" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I565" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J565" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K565" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L565" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M565" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N565" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O565" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P565" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q565" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R565" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S565" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T565" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U565" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V565" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W565" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X565" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y565" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="566" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A566" s="2">
+        <v>45241.871649189816</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D566" s="1">
+        <v>20233934</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H566" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L566" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M566" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N566" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O566" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P566" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q566" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R566" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S566" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T566" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U566" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V566" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W566" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X566" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y566" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="567" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A567" s="2">
+        <v>45241.875903321758</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D567" s="1">
+        <v>20231626</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G567" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H567" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I567" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J567" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K567" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L567" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M567" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N567" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O567" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P567" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q567" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R567" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S567" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T567" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U567" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V567" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W567" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X567" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y567" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="568" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A568" s="2">
+        <v>45241.878128101853</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D568" s="1">
+        <v>20235101</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G568" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H568" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I568" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J568" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K568" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L568" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M568" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N568" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O568" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P568" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q568" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R568" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S568" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T568" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U568" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V568" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W568" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X568" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y568" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="569" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A569" s="2">
+        <v>45241.915024490736</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D569" s="1">
+        <v>20232214</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G569" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I569" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N569" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O569" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P569" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q569" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R569" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S569" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T569" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U569" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V569" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W569" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X569" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y569" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="570" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A570" s="2">
+        <v>45241.921743599538</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D570" s="1">
+        <v>20215173</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G570" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H570" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I570" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J570" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K570" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L570" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M570" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N570" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O570" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P570" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q570" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R570" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S570" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T570" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U570" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V570" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W570" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X570" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y570" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="571" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A571" s="2">
+        <v>45241.930218460649</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D571" s="1">
+        <v>20225207</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G571" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H571" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I571" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J571" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K571" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L571" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M571" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N571" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O571" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P571" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q571" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R571" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S571" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T571" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U571" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V571" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W571" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X571" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y571" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="572" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A572" s="2">
+        <v>45241.942449548616</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D572" s="1">
+        <v>20213732</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G572" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H572" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I572" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J572" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K572" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L572" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M572" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N572" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O572" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P572" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q572" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R572" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S572" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T572" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U572" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V572" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W572" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X572" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y572" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="573" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A573" s="2">
+        <v>45241.948754942132</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D573" s="1">
+        <v>20236233</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G573" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H573" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I573" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J573" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K573" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L573" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M573" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N573" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O573" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P573" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q573" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R573" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S573" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T573" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U573" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V573" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W573" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X573" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y573" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="574" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A574" s="2">
+        <v>45241.967875138886</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D574" s="1">
+        <v>20221026</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G574" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H574" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I574" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J574" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K574" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L574" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M574" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N574" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O574" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P574" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q574" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R574" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S574" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T574" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U574" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V574" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W574" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X574" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y574" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="575" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A575" s="2">
+        <v>45241.967974386571</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D575" s="1">
+        <v>20221542</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G575" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H575" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I575" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J575" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K575" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L575" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M575" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N575" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O575" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P575" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q575" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R575" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S575" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T575" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U575" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V575" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W575" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X575" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y575" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="576" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A576" s="2">
+        <v>45241.987047766204</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D576" s="1">
+        <v>20175110</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G576" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H576" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I576" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J576" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K576" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L576" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M576" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N576" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O576" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P576" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q576" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R576" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S576" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T576" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U576" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V576" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W576" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X576" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y576" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="577" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A577" s="2">
+        <v>45241.993714872689</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D577" s="1">
+        <v>20222728</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G577" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H577" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I577" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J577" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K577" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L577" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M577" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N577" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O577" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P577" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q577" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R577" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S577" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T577" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U577" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V577" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W577" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X577" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y577" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="578" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A578" s="2">
+        <v>45241.998644571759</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D578" s="1">
+        <v>20235122</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G578" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H578" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I578" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J578" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K578" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L578" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M578" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N578" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O578" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P578" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q578" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R578" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S578" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T578" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U578" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V578" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W578" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X578" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y578" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="579" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A579" s="2">
+        <v>45242.007550023147</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D579" s="1">
+        <v>20205265</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G579" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H579" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I579" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J579" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K579" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L579" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M579" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N579" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O579" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P579" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q579" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R579" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S579" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T579" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U579" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V579" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W579" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X579" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y579" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="580" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A580" s="2">
+        <v>45242.009796226848</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D580" s="1">
+        <v>20212986</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G580" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H580" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I580" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J580" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K580" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L580" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M580" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N580" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O580" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P580" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q580" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R580" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S580" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T580" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U580" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V580" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W580" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X580" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y580" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="581" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A581" s="2">
+        <v>45242.014684814814</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D581" s="1">
+        <v>20233244</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H581" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J581" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M581" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N581" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O581" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P581" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q581" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R581" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S581" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T581" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U581" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V581" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W581" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X581" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y581" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="582" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A582" s="2">
+        <v>45242.023624374997</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D582" s="1">
+        <v>20193934</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G582" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H582" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I582" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J582" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K582" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L582" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M582" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N582" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O582" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P582" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q582" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R582" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S582" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T582" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U582" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V582" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W582" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X582" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y582" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="583" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A583" s="2">
+        <v>45242.026173587961</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D583" s="1">
+        <v>20203515</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G583" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H583" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I583" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J583" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K583" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L583" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M583" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N583" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O583" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P583" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q583" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R583" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S583" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T583" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U583" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V583" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W583" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X583" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y583" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="584" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A584" s="2">
+        <v>45242.031374988423</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D584" s="1">
+        <v>20192241</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G584" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H584" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I584" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J584" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K584" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L584" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M584" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N584" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O584" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P584" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q584" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R584" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S584" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T584" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U584" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V584" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W584" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X584" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y584" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="585" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A585" s="2">
+        <v>45242.035580752316</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D585" s="1">
+        <v>20232310</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G585" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H585" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I585" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J585" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K585" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L585" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M585" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N585" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O585" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P585" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q585" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R585" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S585" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T585" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U585" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V585" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W585" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X585" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y585" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="586" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A586" s="2">
+        <v>45242.049898055557</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D586" s="1">
+        <v>20211051</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G586" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H586" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I586" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J586" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K586" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L586" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M586" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N586" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O586" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P586" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q586" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R586" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S586" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T586" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U586" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V586" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W586" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X586" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y586" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="587" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A587" s="2">
+        <v>45242.055454988425</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D587" s="1">
+        <v>20221603</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G587" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H587" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I587" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J587" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K587" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L587" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M587" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N587" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O587" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P587" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q587" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R587" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S587" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T587" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U587" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V587" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W587" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X587" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y587" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="588" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A588" s="2">
+        <v>45242.056629814819</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D588" s="1">
+        <v>20221203</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G588" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H588" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I588" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J588" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K588" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L588" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M588" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N588" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O588" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P588" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q588" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R588" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S588" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T588" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U588" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V588" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W588" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X588" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y588" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="589" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A589" s="2">
+        <v>45242.05744329861</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D589" s="1">
+        <v>20232364</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G589" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H589" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I589" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J589" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K589" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L589" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M589" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N589" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O589" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P589" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q589" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R589" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S589" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T589" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U589" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V589" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W589" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X589" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y589" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="590" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A590" s="2">
+        <v>45242.08064399306</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D590" s="1">
+        <v>20232545</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G590" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H590" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I590" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J590" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K590" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L590" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M590" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N590" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O590" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P590" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q590" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R590" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S590" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T590" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U590" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V590" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W590" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X590" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y590" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="591" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A591" s="2">
+        <v>45242.088752754629</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D591" s="1">
+        <v>20217132</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I591" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N591" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O591" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P591" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q591" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R591" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S591" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T591" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U591" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V591" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W591" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X591" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y591" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="592" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A592" s="2">
+        <v>45242.139343657407</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D592" s="1">
+        <v>20233303</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G592" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H592" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I592" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J592" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K592" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L592" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M592" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N592" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O592" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P592" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q592" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R592" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S592" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T592" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U592" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V592" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W592" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X592" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y592" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="593" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A593" s="2">
+        <v>45242.200262060185</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D593" s="1">
+        <v>20182517</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G593" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H593" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I593" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J593" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K593" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L593" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M593" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N593" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O593" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P593" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q593" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R593" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S593" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T593" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U593" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V593" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W593" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X593" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y593" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="594" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A594" s="2">
+        <v>45242.277679884261</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D594" s="1">
+        <v>20192953</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G594" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H594" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I594" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J594" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K594" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L594" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M594" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N594" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O594" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P594" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q594" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R594" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S594" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T594" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U594" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V594" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W594" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X594" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y594" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/food_survey_231030.xlsx
+++ b/R/data/food_survey_231030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B83254-CD0A-D046-A0A9-A3A810F22113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F61C96-7F48-4944-9DFC-F95DC3E5DBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45100" yWindow="500" windowWidth="39880" windowHeight="21920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13664" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14354" uniqueCount="1369">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3947,6 +3947,186 @@
   </si>
   <si>
     <t>이인혁</t>
+  </si>
+  <si>
+    <t>tjdals041122@gmail.com</t>
+  </si>
+  <si>
+    <t>전성민</t>
+  </si>
+  <si>
+    <t>junwon5424@naver.com</t>
+  </si>
+  <si>
+    <t>김준원</t>
+  </si>
+  <si>
+    <t>lma240228@gmail.com</t>
+  </si>
+  <si>
+    <t>김재민</t>
+  </si>
+  <si>
+    <t>jsubin0424@gmail.com</t>
+  </si>
+  <si>
+    <t>정수빈</t>
+  </si>
+  <si>
+    <t>minjeong7432@gmail.com</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>amdo0421@naver.com</t>
+  </si>
+  <si>
+    <t>이은빈</t>
+  </si>
+  <si>
+    <t>juhee040413@naver.com</t>
+  </si>
+  <si>
+    <t>박주희</t>
+  </si>
+  <si>
+    <t>sdw0820@gmail.com</t>
+  </si>
+  <si>
+    <t>성동휘</t>
+  </si>
+  <si>
+    <t>chant1238762@gmail.com</t>
+  </si>
+  <si>
+    <t>심재민</t>
+  </si>
+  <si>
+    <t>luv7253@naver.com</t>
+  </si>
+  <si>
+    <t>임아리</t>
+  </si>
+  <si>
+    <t>yeji28667@naver.com</t>
+  </si>
+  <si>
+    <t>신예지</t>
+  </si>
+  <si>
+    <t>zmcnvb@naver.com</t>
+  </si>
+  <si>
+    <t>02c06c@naver.com</t>
+  </si>
+  <si>
+    <t>김채현</t>
+  </si>
+  <si>
+    <t>sungyeon0803@gmail.com</t>
+  </si>
+  <si>
+    <t>최성연</t>
+  </si>
+  <si>
+    <t>dlwjdgh0808@naver.com</t>
+  </si>
+  <si>
+    <t>이정호</t>
+  </si>
+  <si>
+    <t>20211705@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>러시아어</t>
+  </si>
+  <si>
+    <t>김승겸</t>
+  </si>
+  <si>
+    <t>yena8546@naver.com</t>
+  </si>
+  <si>
+    <t>장예나</t>
+  </si>
+  <si>
+    <t>magicsung98@naver.com</t>
+  </si>
+  <si>
+    <t>김동훈</t>
+  </si>
+  <si>
+    <t>tkdgns8006@naver.com</t>
+  </si>
+  <si>
+    <t>이상훈</t>
+  </si>
+  <si>
+    <t>werty1082@naver.com</t>
+  </si>
+  <si>
+    <t>김민석</t>
+  </si>
+  <si>
+    <t>sykim09050905@gmail.com</t>
+  </si>
+  <si>
+    <t>김승연</t>
+  </si>
+  <si>
+    <t>unsc2438@gmail.com</t>
+  </si>
+  <si>
+    <t>최찬환</t>
+  </si>
+  <si>
+    <t>dlwlgy0001@naver.com</t>
+  </si>
+  <si>
+    <t>이지효</t>
+  </si>
+  <si>
+    <t>gaddong0507@gmail.com</t>
+  </si>
+  <si>
+    <t>김민균</t>
+  </si>
+  <si>
+    <t>jessica7096@naver.com</t>
+  </si>
+  <si>
+    <t>김보영</t>
+  </si>
+  <si>
+    <t>hyunjong9951@gmail.com</t>
+  </si>
+  <si>
+    <t>디스플레이학과</t>
+  </si>
+  <si>
+    <t>dbwjdrms21@naver.com</t>
+  </si>
+  <si>
+    <t>유정근</t>
+  </si>
+  <si>
+    <t>hyunseo4370@gmail.com</t>
+  </si>
+  <si>
+    <t>장현서</t>
+  </si>
+  <si>
+    <t>donguk3121@gmail.com</t>
+  </si>
+  <si>
+    <t>신동욱</t>
+  </si>
+  <si>
+    <t>back8028@naver.com</t>
+  </si>
+  <si>
+    <t>백재영</t>
   </si>
 </sst>
 </file>
@@ -4220,11 +4400,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y594"/>
+  <dimension ref="A1:Y624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A556" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B600" sqref="B600"/>
+      <pane ySplit="1" topLeftCell="A585" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J629" sqref="J629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -49970,6 +50150,2316 @@
         <v>36</v>
       </c>
     </row>
+    <row r="595" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A595" s="2">
+        <v>45242.331749930556</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D595" s="1">
+        <v>20232357</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G595" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H595" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I595" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J595" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K595" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L595" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M595" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N595" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O595" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P595" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q595" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R595" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S595" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T595" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U595" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V595" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W595" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X595" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y595" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="596" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A596" s="2">
+        <v>45242.34740697917</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D596" s="1">
+        <v>20226613</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I596" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O596" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P596" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q596" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R596" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S596" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T596" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U596" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V596" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W596" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X596" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y596" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="597" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A597" s="2">
+        <v>45242.380582164347</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D597" s="1">
+        <v>20236608</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G597" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H597" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I597" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J597" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K597" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L597" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M597" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N597" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O597" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P597" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q597" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R597" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S597" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T597" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U597" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V597" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W597" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X597" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y597" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="598" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A598" s="2">
+        <v>45242.399172013887</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D598" s="1">
+        <v>20222355</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G598" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H598" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I598" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J598" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K598" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L598" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M598" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N598" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O598" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P598" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q598" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R598" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S598" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T598" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U598" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V598" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W598" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X598" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y598" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="599" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A599" s="2">
+        <v>45242.413356354169</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D599" s="1">
+        <v>20236217</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G599" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H599" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I599" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J599" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K599" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L599" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M599" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N599" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O599" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P599" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q599" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R599" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S599" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T599" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U599" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V599" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W599" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X599" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y599" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="600" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A600" s="2">
+        <v>45242.42484673611</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D600" s="1">
+        <v>20236278</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G600" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H600" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I600" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J600" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K600" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L600" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M600" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N600" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O600" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P600" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q600" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R600" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S600" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T600" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U600" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V600" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W600" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X600" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y600" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="601" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A601" s="2">
+        <v>45242.429741701388</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D601" s="1">
+        <v>20233817</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H601" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I601" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J601" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K601" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L601" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M601" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N601" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O601" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P601" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q601" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R601" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S601" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T601" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U601" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V601" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W601" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X601" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y601" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="602" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A602" s="2">
+        <v>45242.441554375</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D602" s="1">
+        <v>20233819</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G602" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H602" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I602" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J602" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K602" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L602" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M602" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N602" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O602" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P602" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q602" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R602" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S602" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T602" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U602" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V602" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W602" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X602" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y602" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="603" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A603" s="2">
+        <v>45242.467535856485</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D603" s="1">
+        <v>20225186</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G603" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H603" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I603" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J603" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K603" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L603" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M603" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N603" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O603" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P603" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q603" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R603" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S603" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T603" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U603" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V603" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W603" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X603" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y603" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="604" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A604" s="2">
+        <v>45242.488742638889</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D604" s="1">
+        <v>20231080</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G604" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H604" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I604" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J604" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K604" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L604" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M604" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N604" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O604" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P604" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q604" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R604" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S604" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T604" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U604" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V604" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W604" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X604" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y604" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="605" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A605" s="2">
+        <v>45242.489463599537</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D605" s="1">
+        <v>20236623</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G605" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L605" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O605" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P605" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q605" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R605" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S605" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T605" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U605" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V605" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W605" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X605" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y605" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="606" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A606" s="2">
+        <v>45242.490097175927</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D606" s="1">
+        <v>20213014</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G606" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H606" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I606" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J606" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K606" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L606" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M606" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N606" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O606" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P606" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q606" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R606" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S606" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T606" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U606" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V606" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W606" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X606" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y606" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="607" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A607" s="2">
+        <v>45242.492874201387</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D607" s="1">
+        <v>20217055</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H607" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I607" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J607" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K607" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L607" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M607" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N607" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O607" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P607" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q607" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R607" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S607" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T607" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U607" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V607" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W607" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X607" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y607" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="608" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A608" s="2">
+        <v>45242.498810810182</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D608" s="1">
+        <v>20232437</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G608" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H608" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I608" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J608" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K608" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L608" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M608" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N608" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O608" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P608" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q608" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R608" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S608" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T608" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U608" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V608" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W608" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X608" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y608" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="609" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A609" s="2">
+        <v>45242.518325173616</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D609" s="1">
+        <v>20201083</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H609" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I609" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J609" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K609" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L609" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M609" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N609" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O609" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P609" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q609" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R609" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S609" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T609" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U609" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V609" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W609" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X609" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y609" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="610" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A610" s="2">
+        <v>45242.521188483792</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D610" s="1">
+        <v>20211706</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H610" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I610" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J610" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K610" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L610" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M610" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N610" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O610" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P610" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q610" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R610" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S610" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T610" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U610" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V610" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W610" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X610" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y610" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="611" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A611" s="2">
+        <v>45242.531334201391</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D611" s="1">
+        <v>20233025</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H611" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I611" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J611" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K611" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L611" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M611" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N611" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O611" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P611" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q611" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R611" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S611" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T611" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U611" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V611" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W611" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X611" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y611" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="612" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A612" s="2">
+        <v>45242.534023518514</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D612" s="1">
+        <v>20212913</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K612" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M612" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O612" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P612" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q612" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R612" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S612" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T612" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U612" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V612" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W612" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X612" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y612" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="613" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A613" s="2">
+        <v>45242.53557699074</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D613" s="1">
+        <v>20207035</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G613" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H613" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I613" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J613" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K613" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L613" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M613" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N613" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O613" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P613" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q613" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R613" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S613" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T613" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U613" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V613" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W613" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X613" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y613" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="614" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A614" s="2">
+        <v>45242.539959780093</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D614" s="1">
+        <v>20232509</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G614" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H614" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I614" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J614" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K614" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L614" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M614" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N614" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O614" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P614" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q614" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R614" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S614" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T614" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U614" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V614" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W614" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X614" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y614" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="615" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A615" s="2">
+        <v>45242.541241979168</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D615" s="1">
+        <v>20236223</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G615" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H615" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I615" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J615" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K615" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L615" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M615" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N615" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O615" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P615" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q615" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R615" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S615" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T615" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U615" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V615" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W615" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X615" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y615" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="616" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A616" s="2">
+        <v>45242.543167546297</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D616" s="1">
+        <v>20225271</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G616" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H616" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I616" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J616" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K616" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L616" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M616" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N616" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O616" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P616" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q616" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R616" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S616" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T616" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U616" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V616" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W616" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X616" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y616" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="617" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A617" s="2">
+        <v>45242.547123483797</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D617" s="1">
+        <v>20203024</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G617" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H617" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I617" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J617" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K617" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L617" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M617" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N617" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O617" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P617" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q617" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R617" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S617" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T617" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U617" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V617" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W617" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X617" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y617" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="618" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A618" s="2">
+        <v>45242.552448969909</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D618" s="1">
+        <v>20232106</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G618" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H618" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I618" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J618" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K618" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L618" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M618" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N618" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O618" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P618" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q618" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R618" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S618" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T618" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U618" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V618" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W618" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X618" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y618" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="619" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A619" s="2">
+        <v>45242.553201724542</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D619" s="1">
+        <v>20221705</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G619" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H619" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I619" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J619" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K619" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L619" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M619" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N619" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O619" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P619" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q619" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R619" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S619" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T619" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U619" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V619" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W619" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X619" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y619" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="620" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A620" s="2">
+        <v>45242.556179490741</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D620" s="1">
+        <v>20183319</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G620" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H620" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I620" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J620" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K620" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L620" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M620" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N620" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O620" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P620" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q620" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R620" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S620" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T620" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U620" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V620" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W620" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X620" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y620" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="621" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A621" s="2">
+        <v>45242.561117627316</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D621" s="1">
+        <v>20183829</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G621" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H621" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I621" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J621" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K621" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L621" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M621" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N621" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O621" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P621" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q621" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R621" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S621" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T621" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U621" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V621" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W621" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X621" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y621" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="622" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A622" s="2">
+        <v>45242.562368159721</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D622" s="1">
+        <v>20236636</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G622" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H622" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I622" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J622" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K622" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L622" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M622" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N622" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O622" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P622" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q622" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R622" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S622" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T622" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U622" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V622" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W622" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X622" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y622" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="623" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A623" s="2">
+        <v>45242.566327210647</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D623" s="1">
+        <v>20226129</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G623" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H623" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I623" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J623" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K623" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L623" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M623" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N623" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O623" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P623" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q623" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R623" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S623" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T623" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U623" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V623" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W623" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X623" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y623" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="624" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A624" s="2">
+        <v>45242.569880023148</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D624" s="1">
+        <v>20202972</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G624" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H624" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I624" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J624" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K624" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L624" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M624" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N624" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O624" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P624" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q624" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R624" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S624" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T624" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U624" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V624" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W624" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X624" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y624" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
